--- a/Model/BayesLSTM/Multivariate/result/Manufacturing/SGP.xlsx
+++ b/Model/BayesLSTM/Multivariate/result/Manufacturing/SGP.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,13 +463,13 @@
         <v>1988</v>
       </c>
       <c r="B2" t="n">
-        <v>23.81453514099121</v>
+        <v>25.99314498901367</v>
       </c>
       <c r="C2" t="n">
-        <v>22.86997222900391</v>
+        <v>25.77066230773926</v>
       </c>
       <c r="D2" t="n">
-        <v>24.75909805297852</v>
+        <v>26.21562767028809</v>
       </c>
     </row>
     <row r="3">
@@ -477,13 +477,13 @@
         <v>1989</v>
       </c>
       <c r="B3" t="n">
-        <v>24.36465835571289</v>
+        <v>25.52628707885742</v>
       </c>
       <c r="C3" t="n">
-        <v>23.30290031433105</v>
+        <v>25.43752670288086</v>
       </c>
       <c r="D3" t="n">
-        <v>25.42641639709473</v>
+        <v>25.61504745483398</v>
       </c>
     </row>
     <row r="4">
@@ -491,13 +491,13 @@
         <v>1990</v>
       </c>
       <c r="B4" t="n">
-        <v>24.69738578796387</v>
+        <v>24.77663803100586</v>
       </c>
       <c r="C4" t="n">
-        <v>23.54666328430176</v>
+        <v>24.70198440551758</v>
       </c>
       <c r="D4" t="n">
-        <v>25.84810829162598</v>
+        <v>24.85129165649414</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         <v>1991</v>
       </c>
       <c r="B5" t="n">
-        <v>24.89695167541504</v>
+        <v>24.48725128173828</v>
       </c>
       <c r="C5" t="n">
-        <v>23.76281356811523</v>
+        <v>24.44355964660645</v>
       </c>
       <c r="D5" t="n">
-        <v>26.03108978271484</v>
+        <v>24.53094291687012</v>
       </c>
     </row>
     <row r="6">
@@ -519,13 +519,13 @@
         <v>1992</v>
       </c>
       <c r="B6" t="n">
-        <v>25.01593780517578</v>
+        <v>24.35637283325195</v>
       </c>
       <c r="C6" t="n">
-        <v>23.88556289672852</v>
+        <v>24.33881759643555</v>
       </c>
       <c r="D6" t="n">
-        <v>26.14631271362305</v>
+        <v>24.37392807006836</v>
       </c>
     </row>
     <row r="7">
@@ -533,13 +533,13 @@
         <v>1993</v>
       </c>
       <c r="B7" t="n">
-        <v>25.1916389465332</v>
+        <v>24.33048057556152</v>
       </c>
       <c r="C7" t="n">
-        <v>23.82353973388672</v>
+        <v>24.32543563842773</v>
       </c>
       <c r="D7" t="n">
-        <v>26.55973815917969</v>
+        <v>24.33552551269531</v>
       </c>
     </row>
     <row r="8">
@@ -547,13 +547,13 @@
         <v>1994</v>
       </c>
       <c r="B8" t="n">
-        <v>24.92181587219238</v>
+        <v>24.32630920410156</v>
       </c>
       <c r="C8" t="n">
-        <v>23.54190444946289</v>
+        <v>24.3126049041748</v>
       </c>
       <c r="D8" t="n">
-        <v>26.30172729492188</v>
+        <v>24.34001350402832</v>
       </c>
     </row>
     <row r="9">
@@ -561,13 +561,13 @@
         <v>1995</v>
       </c>
       <c r="B9" t="n">
-        <v>25.08550262451172</v>
+        <v>24.32629013061523</v>
       </c>
       <c r="C9" t="n">
-        <v>23.90860557556152</v>
+        <v>24.31101989746094</v>
       </c>
       <c r="D9" t="n">
-        <v>26.26239967346191</v>
+        <v>24.34156036376953</v>
       </c>
     </row>
     <row r="10">
@@ -575,13 +575,13 @@
         <v>1996</v>
       </c>
       <c r="B10" t="n">
-        <v>25.03482055664062</v>
+        <v>24.32515335083008</v>
       </c>
       <c r="C10" t="n">
-        <v>23.60438346862793</v>
+        <v>24.31321716308594</v>
       </c>
       <c r="D10" t="n">
-        <v>26.46525764465332</v>
+        <v>24.33708953857422</v>
       </c>
     </row>
     <row r="11">
@@ -589,13 +589,13 @@
         <v>1997</v>
       </c>
       <c r="B11" t="n">
-        <v>25.14584541320801</v>
+        <v>24.3247013092041</v>
       </c>
       <c r="C11" t="n">
-        <v>24.03184509277344</v>
+        <v>24.31443977355957</v>
       </c>
       <c r="D11" t="n">
-        <v>26.25984573364258</v>
+        <v>24.33496284484863</v>
       </c>
     </row>
     <row r="12">
@@ -603,13 +603,13 @@
         <v>1998</v>
       </c>
       <c r="B12" t="n">
-        <v>24.75355529785156</v>
+        <v>24.32595634460449</v>
       </c>
       <c r="C12" t="n">
-        <v>23.83590698242188</v>
+        <v>24.30744552612305</v>
       </c>
       <c r="D12" t="n">
-        <v>25.67120361328125</v>
+        <v>24.34446716308594</v>
       </c>
     </row>
     <row r="13">
@@ -617,13 +617,13 @@
         <v>1999</v>
       </c>
       <c r="B13" t="n">
-        <v>24.95391273498535</v>
+        <v>24.32590103149414</v>
       </c>
       <c r="C13" t="n">
-        <v>23.8625602722168</v>
+        <v>24.31344032287598</v>
       </c>
       <c r="D13" t="n">
-        <v>26.04526519775391</v>
+        <v>24.3383617401123</v>
       </c>
     </row>
     <row r="14">
@@ -631,13 +631,13 @@
         <v>2000</v>
       </c>
       <c r="B14" t="n">
-        <v>24.85300827026367</v>
+        <v>24.32473564147949</v>
       </c>
       <c r="C14" t="n">
-        <v>23.86078453063965</v>
+        <v>24.30892372131348</v>
       </c>
       <c r="D14" t="n">
-        <v>25.8452320098877</v>
+        <v>24.34054756164551</v>
       </c>
     </row>
     <row r="15">
@@ -645,13 +645,13 @@
         <v>2001</v>
       </c>
       <c r="B15" t="n">
-        <v>24.9625072479248</v>
+        <v>24.32592010498047</v>
       </c>
       <c r="C15" t="n">
-        <v>24.38962745666504</v>
+        <v>24.31110000610352</v>
       </c>
       <c r="D15" t="n">
-        <v>25.53538703918457</v>
+        <v>24.34074020385742</v>
       </c>
     </row>
     <row r="16">
@@ -659,13 +659,13 @@
         <v>2002</v>
       </c>
       <c r="B16" t="n">
-        <v>25.00516128540039</v>
+        <v>24.32318115234375</v>
       </c>
       <c r="C16" t="n">
-        <v>23.96807861328125</v>
+        <v>24.29720497131348</v>
       </c>
       <c r="D16" t="n">
-        <v>26.04224395751953</v>
+        <v>24.34915733337402</v>
       </c>
     </row>
     <row r="17">
@@ -673,13 +673,13 @@
         <v>2003</v>
       </c>
       <c r="B17" t="n">
-        <v>25.02852821350098</v>
+        <v>24.32663154602051</v>
       </c>
       <c r="C17" t="n">
-        <v>23.69973754882812</v>
+        <v>24.31552696228027</v>
       </c>
       <c r="D17" t="n">
-        <v>26.35731887817383</v>
+        <v>24.33773612976074</v>
       </c>
     </row>
     <row r="18">
@@ -687,13 +687,13 @@
         <v>2004</v>
       </c>
       <c r="B18" t="n">
-        <v>24.71819686889648</v>
+        <v>24.3218936920166</v>
       </c>
       <c r="C18" t="n">
-        <v>23.90070152282715</v>
+        <v>24.2972583770752</v>
       </c>
       <c r="D18" t="n">
-        <v>25.53569221496582</v>
+        <v>24.34652900695801</v>
       </c>
     </row>
     <row r="19">
@@ -701,13 +701,13 @@
         <v>2005</v>
       </c>
       <c r="B19" t="n">
-        <v>24.9953727722168</v>
+        <v>24.32423782348633</v>
       </c>
       <c r="C19" t="n">
-        <v>23.38408660888672</v>
+        <v>24.31484031677246</v>
       </c>
       <c r="D19" t="n">
-        <v>26.60665893554688</v>
+        <v>24.3336353302002</v>
       </c>
     </row>
     <row r="20">
@@ -715,13 +715,13 @@
         <v>2006</v>
       </c>
       <c r="B20" t="n">
-        <v>24.8638858795166</v>
+        <v>24.3242359161377</v>
       </c>
       <c r="C20" t="n">
-        <v>23.50341033935547</v>
+        <v>24.30846405029297</v>
       </c>
       <c r="D20" t="n">
-        <v>26.22436141967773</v>
+        <v>24.34000778198242</v>
       </c>
     </row>
     <row r="21">
@@ -729,13 +729,13 @@
         <v>2007</v>
       </c>
       <c r="B21" t="n">
-        <v>24.89121055603027</v>
+        <v>24.32724189758301</v>
       </c>
       <c r="C21" t="n">
-        <v>23.68027305603027</v>
+        <v>24.31198501586914</v>
       </c>
       <c r="D21" t="n">
-        <v>26.10214805603027</v>
+        <v>24.34249877929688</v>
       </c>
     </row>
     <row r="22">
@@ -743,13 +743,13 @@
         <v>2008</v>
       </c>
       <c r="B22" t="n">
-        <v>24.62347793579102</v>
+        <v>24.32367324829102</v>
       </c>
       <c r="C22" t="n">
-        <v>23.67876243591309</v>
+        <v>24.31031608581543</v>
       </c>
       <c r="D22" t="n">
-        <v>25.56819343566895</v>
+        <v>24.3370304107666</v>
       </c>
     </row>
     <row r="23">
@@ -757,13 +757,13 @@
         <v>2009</v>
       </c>
       <c r="B23" t="n">
-        <v>24.80864143371582</v>
+        <v>24.31924819946289</v>
       </c>
       <c r="C23" t="n">
-        <v>23.54451370239258</v>
+        <v>24.30051803588867</v>
       </c>
       <c r="D23" t="n">
-        <v>26.07276916503906</v>
+        <v>24.33797836303711</v>
       </c>
     </row>
     <row r="24">
@@ -771,13 +771,13 @@
         <v>2010</v>
       </c>
       <c r="B24" t="n">
-        <v>24.88437271118164</v>
+        <v>24.32246589660645</v>
       </c>
       <c r="C24" t="n">
-        <v>23.64728927612305</v>
+        <v>24.30869293212891</v>
       </c>
       <c r="D24" t="n">
-        <v>26.12145614624023</v>
+        <v>24.33623886108398</v>
       </c>
     </row>
     <row r="25">
@@ -785,13 +785,13 @@
         <v>2011</v>
       </c>
       <c r="B25" t="n">
-        <v>25.04405212402344</v>
+        <v>24.32576370239258</v>
       </c>
       <c r="C25" t="n">
-        <v>23.66671943664551</v>
+        <v>24.31302833557129</v>
       </c>
       <c r="D25" t="n">
-        <v>26.42138481140137</v>
+        <v>24.33849906921387</v>
       </c>
     </row>
     <row r="26">
@@ -799,13 +799,13 @@
         <v>2012</v>
       </c>
       <c r="B26" t="n">
-        <v>24.85122489929199</v>
+        <v>24.32692527770996</v>
       </c>
       <c r="C26" t="n">
-        <v>24.12361335754395</v>
+        <v>24.31628036499023</v>
       </c>
       <c r="D26" t="n">
-        <v>25.57883644104004</v>
+        <v>24.33757019042969</v>
       </c>
     </row>
     <row r="27">
@@ -813,13 +813,13 @@
         <v>2013</v>
       </c>
       <c r="B27" t="n">
-        <v>24.80924606323242</v>
+        <v>24.32693481445312</v>
       </c>
       <c r="C27" t="n">
-        <v>23.41344261169434</v>
+        <v>24.31446266174316</v>
       </c>
       <c r="D27" t="n">
-        <v>26.20504951477051</v>
+        <v>24.33940696716309</v>
       </c>
     </row>
     <row r="28">
@@ -827,13 +827,13 @@
         <v>2014</v>
       </c>
       <c r="B28" t="n">
-        <v>24.87127494812012</v>
+        <v>24.32497215270996</v>
       </c>
       <c r="C28" t="n">
-        <v>23.3336009979248</v>
+        <v>24.30307388305664</v>
       </c>
       <c r="D28" t="n">
-        <v>26.40894889831543</v>
+        <v>24.34687042236328</v>
       </c>
     </row>
     <row r="29">
@@ -841,13 +841,13 @@
         <v>2015</v>
       </c>
       <c r="B29" t="n">
-        <v>24.82209968566895</v>
+        <v>24.32617950439453</v>
       </c>
       <c r="C29" t="n">
-        <v>23.65624237060547</v>
+        <v>24.31050109863281</v>
       </c>
       <c r="D29" t="n">
-        <v>25.98795700073242</v>
+        <v>24.34185791015625</v>
       </c>
     </row>
     <row r="30">
@@ -855,83 +855,13 @@
         <v>2016</v>
       </c>
       <c r="B30" t="n">
-        <v>24.86338424682617</v>
+        <v>24.3222713470459</v>
       </c>
       <c r="C30" t="n">
-        <v>23.76201820373535</v>
+        <v>24.31216049194336</v>
       </c>
       <c r="D30" t="n">
-        <v>25.96475028991699</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B31" t="n">
-        <v>24.61913108825684</v>
-      </c>
-      <c r="C31" t="n">
-        <v>23.49584007263184</v>
-      </c>
-      <c r="D31" t="n">
-        <v>25.74242210388184</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B32" t="n">
-        <v>24.81060028076172</v>
-      </c>
-      <c r="C32" t="n">
-        <v>23.44491767883301</v>
-      </c>
-      <c r="D32" t="n">
-        <v>26.17628288269043</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B33" t="n">
-        <v>24.87879371643066</v>
-      </c>
-      <c r="C33" t="n">
-        <v>23.73359489440918</v>
-      </c>
-      <c r="D33" t="n">
-        <v>26.02399253845215</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B34" t="n">
-        <v>24.76837348937988</v>
-      </c>
-      <c r="C34" t="n">
-        <v>23.72422027587891</v>
-      </c>
-      <c r="D34" t="n">
-        <v>25.81252670288086</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B35" t="n">
-        <v>24.55633163452148</v>
-      </c>
-      <c r="C35" t="n">
-        <v>23.37054443359375</v>
-      </c>
-      <c r="D35" t="n">
-        <v>25.74211883544922</v>
+        <v>24.33238220214844</v>
       </c>
     </row>
   </sheetData>
@@ -977,72 +907,72 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>23.16817092895508</v>
+        <v>24.32796096801758</v>
       </c>
       <c r="C2" t="n">
-        <v>21.73576836625451</v>
+        <v>24.31442070007324</v>
       </c>
       <c r="D2" t="n">
-        <v>24.60057349165565</v>
+        <v>24.34150123596191</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>22.49197483062744</v>
+        <v>24.3232421875</v>
       </c>
       <c r="C3" t="n">
-        <v>21.0592533951338</v>
+        <v>24.31072616577148</v>
       </c>
       <c r="D3" t="n">
-        <v>23.92469626612109</v>
+        <v>24.33575820922852</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>22.76368370056152</v>
+        <v>24.32907485961914</v>
       </c>
       <c r="C4" t="n">
-        <v>21.48693653192532</v>
+        <v>24.31367111206055</v>
       </c>
       <c r="D4" t="n">
-        <v>24.04043086919772</v>
+        <v>24.34447860717773</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>24.30463314056396</v>
+        <v>24.32817459106445</v>
       </c>
       <c r="C5" t="n">
-        <v>23.49920037218146</v>
+        <v>24.3160457611084</v>
       </c>
       <c r="D5" t="n">
-        <v>25.11006590894647</v>
+        <v>24.34030342102051</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>24.6317590713501</v>
+        <v>24.32804107666016</v>
       </c>
       <c r="C6" t="n">
-        <v>23.39722848994931</v>
+        <v>24.32136917114258</v>
       </c>
       <c r="D6" t="n">
-        <v>25.86628965275088</v>
+        <v>24.33471298217773</v>
       </c>
     </row>
   </sheetData>
@@ -1091,13 +1021,13 @@
         <v>1988</v>
       </c>
       <c r="B2" t="n">
-        <v>23.6693229675293</v>
+        <v>26.18404769897461</v>
       </c>
       <c r="C2" t="n">
-        <v>22.39493179321289</v>
+        <v>25.96952247619629</v>
       </c>
       <c r="D2" t="n">
-        <v>24.9437141418457</v>
+        <v>26.39857292175293</v>
       </c>
     </row>
     <row r="3">
@@ -1105,13 +1035,13 @@
         <v>1989</v>
       </c>
       <c r="B3" t="n">
-        <v>23.57018661499023</v>
+        <v>25.67339515686035</v>
       </c>
       <c r="C3" t="n">
-        <v>22.35256385803223</v>
+        <v>25.53246307373047</v>
       </c>
       <c r="D3" t="n">
-        <v>24.78780937194824</v>
+        <v>25.81432723999023</v>
       </c>
     </row>
     <row r="4">
@@ -1119,13 +1049,13 @@
         <v>1990</v>
       </c>
       <c r="B4" t="n">
-        <v>23.28716659545898</v>
+        <v>24.72183609008789</v>
       </c>
       <c r="C4" t="n">
-        <v>22.04372787475586</v>
+        <v>24.60990142822266</v>
       </c>
       <c r="D4" t="n">
-        <v>24.53060531616211</v>
+        <v>24.83377075195312</v>
       </c>
     </row>
     <row r="5">
@@ -1133,13 +1063,13 @@
         <v>1991</v>
       </c>
       <c r="B5" t="n">
-        <v>23.81470680236816</v>
+        <v>25.62351608276367</v>
       </c>
       <c r="C5" t="n">
-        <v>23.00234222412109</v>
+        <v>25.54537010192871</v>
       </c>
       <c r="D5" t="n">
-        <v>24.62707138061523</v>
+        <v>25.70166206359863</v>
       </c>
     </row>
     <row r="6">
@@ -1147,13 +1077,13 @@
         <v>1992</v>
       </c>
       <c r="B6" t="n">
-        <v>23.88427543640137</v>
+        <v>24.40957260131836</v>
       </c>
       <c r="C6" t="n">
-        <v>22.70065307617188</v>
+        <v>24.31731986999512</v>
       </c>
       <c r="D6" t="n">
-        <v>25.06789779663086</v>
+        <v>24.5018253326416</v>
       </c>
     </row>
     <row r="7">
@@ -1161,13 +1091,13 @@
         <v>1993</v>
       </c>
       <c r="B7" t="n">
-        <v>23.52711296081543</v>
+        <v>24.31554985046387</v>
       </c>
       <c r="C7" t="n">
-        <v>22.39437866210938</v>
+        <v>24.22927856445312</v>
       </c>
       <c r="D7" t="n">
-        <v>24.65984725952148</v>
+        <v>24.40182113647461</v>
       </c>
     </row>
     <row r="8">
@@ -1175,13 +1105,13 @@
         <v>1994</v>
       </c>
       <c r="B8" t="n">
-        <v>23.26111793518066</v>
+        <v>24.18142700195312</v>
       </c>
       <c r="C8" t="n">
-        <v>21.75143623352051</v>
+        <v>24.10101890563965</v>
       </c>
       <c r="D8" t="n">
-        <v>24.77079963684082</v>
+        <v>24.2618350982666</v>
       </c>
     </row>
     <row r="9">
@@ -1189,13 +1119,13 @@
         <v>1995</v>
       </c>
       <c r="B9" t="n">
-        <v>23.42251396179199</v>
+        <v>24.1235466003418</v>
       </c>
       <c r="C9" t="n">
-        <v>22.02255439758301</v>
+        <v>24.09757995605469</v>
       </c>
       <c r="D9" t="n">
-        <v>24.82247352600098</v>
+        <v>24.14951324462891</v>
       </c>
     </row>
     <row r="10">
@@ -1203,13 +1133,13 @@
         <v>1996</v>
       </c>
       <c r="B10" t="n">
-        <v>23.62326240539551</v>
+        <v>24.11587715148926</v>
       </c>
       <c r="C10" t="n">
-        <v>22.18568229675293</v>
+        <v>24.09426879882812</v>
       </c>
       <c r="D10" t="n">
-        <v>25.06084251403809</v>
+        <v>24.13748550415039</v>
       </c>
     </row>
     <row r="11">
@@ -1217,13 +1147,13 @@
         <v>1997</v>
       </c>
       <c r="B11" t="n">
-        <v>23.78041458129883</v>
+        <v>24.11493301391602</v>
       </c>
       <c r="C11" t="n">
-        <v>22.64127159118652</v>
+        <v>24.09488296508789</v>
       </c>
       <c r="D11" t="n">
-        <v>24.91955757141113</v>
+        <v>24.13498306274414</v>
       </c>
     </row>
     <row r="12">
@@ -1231,13 +1161,13 @@
         <v>1998</v>
       </c>
       <c r="B12" t="n">
-        <v>23.58136177062988</v>
+        <v>24.11886024475098</v>
       </c>
       <c r="C12" t="n">
-        <v>21.8805046081543</v>
+        <v>24.10157775878906</v>
       </c>
       <c r="D12" t="n">
-        <v>25.28221893310547</v>
+        <v>24.13614273071289</v>
       </c>
     </row>
     <row r="13">
@@ -1245,13 +1175,13 @@
         <v>1999</v>
       </c>
       <c r="B13" t="n">
-        <v>23.63238906860352</v>
+        <v>24.12203979492188</v>
       </c>
       <c r="C13" t="n">
-        <v>22.42709350585938</v>
+        <v>24.1050853729248</v>
       </c>
       <c r="D13" t="n">
-        <v>24.83768463134766</v>
+        <v>24.13899421691895</v>
       </c>
     </row>
     <row r="14">
@@ -1259,13 +1189,13 @@
         <v>2000</v>
       </c>
       <c r="B14" t="n">
-        <v>23.43595314025879</v>
+        <v>24.12321090698242</v>
       </c>
       <c r="C14" t="n">
-        <v>22.03438949584961</v>
+        <v>24.09653091430664</v>
       </c>
       <c r="D14" t="n">
-        <v>24.83751678466797</v>
+        <v>24.1498908996582</v>
       </c>
     </row>
     <row r="15">
@@ -1273,13 +1203,13 @@
         <v>2001</v>
       </c>
       <c r="B15" t="n">
-        <v>23.23928451538086</v>
+        <v>24.11662673950195</v>
       </c>
       <c r="C15" t="n">
-        <v>22.04014015197754</v>
+        <v>24.09877014160156</v>
       </c>
       <c r="D15" t="n">
-        <v>24.43842887878418</v>
+        <v>24.13448333740234</v>
       </c>
     </row>
     <row r="16">
@@ -1287,13 +1217,13 @@
         <v>2002</v>
       </c>
       <c r="B16" t="n">
-        <v>23.20099449157715</v>
+        <v>24.11534881591797</v>
       </c>
       <c r="C16" t="n">
-        <v>21.5350513458252</v>
+        <v>24.08310890197754</v>
       </c>
       <c r="D16" t="n">
-        <v>24.8669376373291</v>
+        <v>24.1475887298584</v>
       </c>
     </row>
     <row r="17">
@@ -1301,13 +1231,13 @@
         <v>2003</v>
       </c>
       <c r="B17" t="n">
-        <v>23.43839454650879</v>
+        <v>24.13557243347168</v>
       </c>
       <c r="C17" t="n">
-        <v>22.29110145568848</v>
+        <v>24.09083557128906</v>
       </c>
       <c r="D17" t="n">
-        <v>24.5856876373291</v>
+        <v>24.1803092956543</v>
       </c>
     </row>
     <row r="18">
@@ -1315,13 +1245,13 @@
         <v>2004</v>
       </c>
       <c r="B18" t="n">
-        <v>23.52545547485352</v>
+        <v>24.12612915039062</v>
       </c>
       <c r="C18" t="n">
-        <v>21.72635459899902</v>
+        <v>24.09147262573242</v>
       </c>
       <c r="D18" t="n">
-        <v>25.32455635070801</v>
+        <v>24.16078567504883</v>
       </c>
     </row>
     <row r="19">
@@ -1329,13 +1259,13 @@
         <v>2005</v>
       </c>
       <c r="B19" t="n">
-        <v>23.59819412231445</v>
+        <v>24.11815071105957</v>
       </c>
       <c r="C19" t="n">
-        <v>22.07112121582031</v>
+        <v>24.09397125244141</v>
       </c>
       <c r="D19" t="n">
-        <v>25.12526702880859</v>
+        <v>24.14233016967773</v>
       </c>
     </row>
     <row r="20">
@@ -1343,13 +1273,13 @@
         <v>2006</v>
       </c>
       <c r="B20" t="n">
-        <v>23.70874404907227</v>
+        <v>24.12129592895508</v>
       </c>
       <c r="C20" t="n">
-        <v>22.76329612731934</v>
+        <v>24.09422492980957</v>
       </c>
       <c r="D20" t="n">
-        <v>24.6541919708252</v>
+        <v>24.14836692810059</v>
       </c>
     </row>
     <row r="21">
@@ -1357,13 +1287,13 @@
         <v>2007</v>
       </c>
       <c r="B21" t="n">
-        <v>23.47568702697754</v>
+        <v>24.12528038024902</v>
       </c>
       <c r="C21" t="n">
-        <v>22.04898643493652</v>
+        <v>24.10430335998535</v>
       </c>
       <c r="D21" t="n">
-        <v>24.90238761901855</v>
+        <v>24.1462574005127</v>
       </c>
     </row>
     <row r="22">
@@ -1371,13 +1301,13 @@
         <v>2008</v>
       </c>
       <c r="B22" t="n">
-        <v>23.46867370605469</v>
+        <v>24.12737846374512</v>
       </c>
       <c r="C22" t="n">
-        <v>21.64580917358398</v>
+        <v>24.10182762145996</v>
       </c>
       <c r="D22" t="n">
-        <v>25.29153823852539</v>
+        <v>24.15292930603027</v>
       </c>
     </row>
     <row r="23">
@@ -1385,13 +1315,13 @@
         <v>2009</v>
       </c>
       <c r="B23" t="n">
-        <v>23.62536811828613</v>
+        <v>24.11423683166504</v>
       </c>
       <c r="C23" t="n">
-        <v>22.19673347473145</v>
+        <v>24.08737564086914</v>
       </c>
       <c r="D23" t="n">
-        <v>25.05400276184082</v>
+        <v>24.14109802246094</v>
       </c>
     </row>
     <row r="24">
@@ -1399,13 +1329,13 @@
         <v>2010</v>
       </c>
       <c r="B24" t="n">
-        <v>23.29206657409668</v>
+        <v>24.13058662414551</v>
       </c>
       <c r="C24" t="n">
-        <v>22.24117279052734</v>
+        <v>24.10265159606934</v>
       </c>
       <c r="D24" t="n">
-        <v>24.34296035766602</v>
+        <v>24.15852165222168</v>
       </c>
     </row>
     <row r="25">
@@ -1413,13 +1343,13 @@
         <v>2011</v>
       </c>
       <c r="B25" t="n">
-        <v>23.58743667602539</v>
+        <v>24.11696815490723</v>
       </c>
       <c r="C25" t="n">
-        <v>22.05776405334473</v>
+        <v>24.08213996887207</v>
       </c>
       <c r="D25" t="n">
-        <v>25.11710929870605</v>
+        <v>24.15179634094238</v>
       </c>
     </row>
     <row r="26">
@@ -1427,13 +1357,13 @@
         <v>2012</v>
       </c>
       <c r="B26" t="n">
-        <v>23.53975296020508</v>
+        <v>24.12955093383789</v>
       </c>
       <c r="C26" t="n">
-        <v>21.77175140380859</v>
+        <v>24.09544944763184</v>
       </c>
       <c r="D26" t="n">
-        <v>25.30775451660156</v>
+        <v>24.16365242004395</v>
       </c>
     </row>
     <row r="27">
@@ -1441,13 +1371,13 @@
         <v>2013</v>
       </c>
       <c r="B27" t="n">
-        <v>23.71911239624023</v>
+        <v>24.11710739135742</v>
       </c>
       <c r="C27" t="n">
-        <v>22.99025917053223</v>
+        <v>24.09911918640137</v>
       </c>
       <c r="D27" t="n">
-        <v>24.44796562194824</v>
+        <v>24.13509559631348</v>
       </c>
     </row>
     <row r="28">
@@ -1455,13 +1385,13 @@
         <v>2014</v>
       </c>
       <c r="B28" t="n">
-        <v>23.77038383483887</v>
+        <v>24.11877250671387</v>
       </c>
       <c r="C28" t="n">
-        <v>22.67592811584473</v>
+        <v>24.08597373962402</v>
       </c>
       <c r="D28" t="n">
-        <v>24.86483955383301</v>
+        <v>24.15157127380371</v>
       </c>
     </row>
     <row r="29">
@@ -1469,13 +1399,13 @@
         <v>2015</v>
       </c>
       <c r="B29" t="n">
-        <v>23.63418960571289</v>
+        <v>24.11879920959473</v>
       </c>
       <c r="C29" t="n">
-        <v>22.54840278625488</v>
+        <v>24.08808708190918</v>
       </c>
       <c r="D29" t="n">
-        <v>24.7199764251709</v>
+        <v>24.14951133728027</v>
       </c>
     </row>
     <row r="30">
@@ -1483,13 +1413,13 @@
         <v>2016</v>
       </c>
       <c r="B30" t="n">
-        <v>23.3758659362793</v>
+        <v>24.11767959594727</v>
       </c>
       <c r="C30" t="n">
-        <v>22.33747291564941</v>
+        <v>24.10246658325195</v>
       </c>
       <c r="D30" t="n">
-        <v>24.41425895690918</v>
+        <v>24.13289260864258</v>
       </c>
     </row>
     <row r="31">
@@ -1497,13 +1427,13 @@
         <v>2017</v>
       </c>
       <c r="B31" t="n">
-        <v>23.58686256408691</v>
+        <v>24.13023376464844</v>
       </c>
       <c r="C31" t="n">
-        <v>22.46402740478516</v>
+        <v>24.08782386779785</v>
       </c>
       <c r="D31" t="n">
-        <v>24.70969772338867</v>
+        <v>24.17264366149902</v>
       </c>
     </row>
     <row r="32">
@@ -1511,13 +1441,13 @@
         <v>2018</v>
       </c>
       <c r="B32" t="n">
-        <v>23.57148551940918</v>
+        <v>24.11907005310059</v>
       </c>
       <c r="C32" t="n">
-        <v>22.41152572631836</v>
+        <v>24.09488105773926</v>
       </c>
       <c r="D32" t="n">
-        <v>24.7314453125</v>
+        <v>24.14325904846191</v>
       </c>
     </row>
     <row r="33">
@@ -1525,13 +1455,13 @@
         <v>2019</v>
       </c>
       <c r="B33" t="n">
-        <v>23.61322402954102</v>
+        <v>24.12182235717773</v>
       </c>
       <c r="C33" t="n">
-        <v>22.73087882995605</v>
+        <v>24.08993530273438</v>
       </c>
       <c r="D33" t="n">
-        <v>24.49556922912598</v>
+        <v>24.15370941162109</v>
       </c>
     </row>
     <row r="34">
@@ -1539,13 +1469,13 @@
         <v>2020</v>
       </c>
       <c r="B34" t="n">
-        <v>23.87621688842773</v>
+        <v>24.12488746643066</v>
       </c>
       <c r="C34" t="n">
-        <v>22.56545448303223</v>
+        <v>24.10384368896484</v>
       </c>
       <c r="D34" t="n">
-        <v>25.18697929382324</v>
+        <v>24.14593124389648</v>
       </c>
     </row>
     <row r="35">
@@ -1553,13 +1483,13 @@
         <v>2021</v>
       </c>
       <c r="B35" t="n">
-        <v>23.6381893157959</v>
+        <v>24.12425422668457</v>
       </c>
       <c r="C35" t="n">
-        <v>22.1262149810791</v>
+        <v>24.0934944152832</v>
       </c>
       <c r="D35" t="n">
-        <v>25.1501636505127</v>
+        <v>24.15501403808594</v>
       </c>
     </row>
   </sheetData>
@@ -1608,13 +1538,13 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>21.91143169403076</v>
+        <v>21.43367729187012</v>
       </c>
       <c r="C2" t="n">
-        <v>21.06190898645676</v>
+        <v>21.15392956018782</v>
       </c>
       <c r="D2" t="n">
-        <v>22.76095440160476</v>
+        <v>21.71342502355242</v>
       </c>
     </row>
     <row r="3">
@@ -1622,13 +1552,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>24.65942726135254</v>
+        <v>19.98270244598389</v>
       </c>
       <c r="C3" t="n">
-        <v>24.03506003402878</v>
+        <v>19.74456845943302</v>
       </c>
       <c r="D3" t="n">
-        <v>25.2837944886763</v>
+        <v>20.22083643253476</v>
       </c>
     </row>
     <row r="4">
@@ -1636,13 +1566,13 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>21.26646270751953</v>
+        <v>22.55406513214111</v>
       </c>
       <c r="C4" t="n">
-        <v>20.65872394551645</v>
+        <v>22.26059228975169</v>
       </c>
       <c r="D4" t="n">
-        <v>21.87420146952261</v>
+        <v>22.84753797453053</v>
       </c>
     </row>
     <row r="5">
@@ -1650,13 +1580,13 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>23.08784313201904</v>
+        <v>23.92485542297363</v>
       </c>
       <c r="C5" t="n">
-        <v>22.27823650796967</v>
+        <v>23.74827506299732</v>
       </c>
       <c r="D5" t="n">
-        <v>23.89744975606841</v>
+        <v>24.10143578294994</v>
       </c>
     </row>
     <row r="6">
@@ -1664,13 +1594,13 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>23.43408870697021</v>
+        <v>26.15085544586181</v>
       </c>
       <c r="C6" t="n">
-        <v>22.36244002864265</v>
+        <v>25.85295770948787</v>
       </c>
       <c r="D6" t="n">
-        <v>24.50573738529778</v>
+        <v>26.44875318223576</v>
       </c>
     </row>
   </sheetData>
